--- a/artifact/script/nexial-macro.xlsx
+++ b/artifact/script/nexial-macro.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="558">
   <si>
     <t>description</t>
   </si>
@@ -1736,9 +1736,6 @@
   </si>
   <si>
     <t>${quoteAssert}</t>
-  </si>
-  <si>
-    <t>${acceptCookies}</t>
   </si>
 </sst>
 </file>
@@ -4194,11 +4191,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L301"/>
+  <dimension ref="A1:L300"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10:F12"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4399,10 +4396,10 @@
         <v>117</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="F8" s="21">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -4421,10 +4418,10 @@
         <v>117</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F9" s="21">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -4440,14 +4437,12 @@
         <v>45</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="F10" s="21">
-        <v>3500</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -4462,12 +4457,14 @@
         <v>45</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="21">
+        <v>3000</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -4482,13 +4479,13 @@
         <v>45</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="F12" s="21">
-        <v>3000</v>
+        <v>556</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>557</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -4500,18 +4497,10 @@
     <row r="13" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>557</v>
-      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -4661,7 +4650,7 @@
     </row>
     <row r="24" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
-      <c r="B24" s="4"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="11"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -4675,7 +4664,7 @@
     </row>
     <row r="25" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
-      <c r="B25" s="7"/>
+      <c r="B25" s="4"/>
       <c r="C25" s="11"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -5737,7 +5726,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="13"/>
     </row>
-    <row r="101" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="19"/>
       <c r="B101" s="4"/>
       <c r="C101" s="11"/>
@@ -8537,27 +8526,13 @@
       <c r="K300" s="2"/>
       <c r="L300" s="13"/>
     </row>
-    <row r="301" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="19"/>
-      <c r="B301" s="4"/>
-      <c r="C301" s="11"/>
-      <c r="D301" s="6"/>
-      <c r="E301" s="6"/>
-      <c r="F301" s="6"/>
-      <c r="G301" s="6"/>
-      <c r="H301" s="6"/>
-      <c r="I301" s="6"/>
-      <c r="J301" s="15"/>
-      <c r="K301" s="2"/>
-      <c r="L301" s="13"/>
-    </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C301">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C300">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D301">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D300">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
   </dataValidations>
